--- a/src/Jibe_Config/Jibe_Config.xlsx
+++ b/src/Jibe_Config/Jibe_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reshma\workspace\JibeFunctionalTest3\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priti\workspace\JibeFunctionalTest\src\Jibe_Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -176,10 +176,10 @@
     <t>WindowSwitch_Ctrl</t>
   </si>
   <si>
-    <t>shailesh</t>
-  </si>
-  <si>
-    <t>Jibe@123</t>
+    <t>priti</t>
+  </si>
+  <si>
+    <t>jibe@123</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
